--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0629EF66-8EFE-4EE0-9FF9-BDA75148A55B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C099B4-7DB7-4F39-80DA-35FE03E3C31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Matteo</t>
   </si>
@@ -55,12 +55,18 @@
   </si>
   <si>
     <t>Goal and domain assumptions</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Actors and definitions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -219,30 +225,30 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -252,6 +258,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -565,31 +572,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -602,7 +609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -613,7 +620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -645,11 +652,11 @@
       <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <f>SUM(C4:C9)</f>
         <v>4</v>
       </c>
@@ -659,7 +666,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="27">
+    <row r="12" spans="1:3" ht="27.5">
       <c r="A12" s="18" t="s">
         <v>5</v>
       </c>
@@ -667,9 +674,9 @@
       <c r="C12" s="20"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
@@ -683,63 +690,82 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="A15" s="7">
+        <v>43754</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="29">
+      <c r="A16" s="7">
+        <v>43755</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="7">
+        <v>43757</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:5">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:5">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <f>SUM(C15:C20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="E21" s="21"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:3" ht="27">
+    <row r="23" spans="1:5" ht="27.5">
       <c r="A23" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
     </row>
-    <row r="24" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-    </row>
-    <row r="25" spans="1:3">
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
@@ -750,42 +776,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:5">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:5">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="9"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:5">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="9"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:5">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="15">
         <f>SUM(C26:C31)</f>
         <v>0</v>
       </c>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C099B4-7DB7-4F39-80DA-35FE03E3C31D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Matteo</t>
   </si>
@@ -61,12 +55,15 @@
   </si>
   <si>
     <t>Actors and definitions</t>
+  </si>
+  <si>
+    <t>Scope</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -243,6 +240,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,7 +256,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -565,18 +562,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E24" sqref="E23:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -587,11 +584,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10"/>
@@ -667,11 +664,11 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="27.5">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="11"/>
@@ -746,7 +743,7 @@
         <f>SUM(C15:C20)</f>
         <v>5</v>
       </c>
-      <c r="E21" s="21"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22"/>
@@ -754,11 +751,11 @@
       <c r="C22"/>
     </row>
     <row r="23" spans="1:5" ht="27.5">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="11"/>
@@ -777,14 +774,26 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
+      <c r="A26" s="7">
+        <v>43754</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
+      <c r="A27" s="7">
+        <v>43758</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7"/>
@@ -813,7 +822,7 @@
       </c>
       <c r="C32" s="15">
         <f>SUM(C26:C31)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Matteo</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Scope</t>
+  </si>
+  <si>
+    <t>Class diagram</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -573,7 +576,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E24" sqref="E23:E24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -796,9 +799,15 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
+      <c r="A28" s="7">
+        <v>43760</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7"/>
@@ -822,7 +831,7 @@
       </c>
       <c r="C32" s="15">
         <f>SUM(C26:C31)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -565,7 +565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -576,7 +576,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -806,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -831,7 +831,7 @@
       </c>
       <c r="C32" s="15">
         <f>SUM(C26:C31)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA0441-87F4-47FC-B069-7895073125D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Matteo</t>
   </si>
@@ -61,12 +67,15 @@
   </si>
   <si>
     <t>Class diagram</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -565,25 +574,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
@@ -609,7 +618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -620,7 +629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -632,9 +641,15 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="7">
+        <v>43761</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7"/>
@@ -658,7 +673,7 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C4:C9)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -666,7 +681,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="27.5">
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
@@ -700,7 +715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29">
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" s="7">
         <v>43755</v>
       </c>
@@ -753,7 +768,7 @@
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:5" ht="27.5">
+    <row r="23" spans="1:5" ht="27">
       <c r="A23" s="19" t="s">
         <v>6</v>
       </c>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA0441-87F4-47FC-B069-7895073125D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3FC767-7981-4087-ACF2-77A55FFD55BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Matteo</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Scenarios</t>
+  </si>
+  <si>
+    <t>User Interfaces</t>
   </si>
 </sst>
 </file>
@@ -584,15 +587,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
@@ -618,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -629,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -681,7 +684,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="27">
+    <row r="12" spans="1:3" ht="27.5">
       <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
@@ -715,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:3" ht="29">
       <c r="A16" s="7">
         <v>43755</v>
       </c>
@@ -738,9 +741,15 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7"/>
@@ -759,7 +768,7 @@
       </c>
       <c r="C21" s="15">
         <f>SUM(C15:C20)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21" s="16"/>
     </row>
@@ -768,7 +777,7 @@
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:5" ht="27">
+    <row r="23" spans="1:5" ht="27.5">
       <c r="A23" s="19" t="s">
         <v>6</v>
       </c>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3FC767-7981-4087-ACF2-77A55FFD55BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>Matteo</t>
   </si>
@@ -73,12 +67,18 @@
   </si>
   <si>
     <t>User Interfaces</t>
+  </si>
+  <si>
+    <t>World and Machine</t>
+  </si>
+  <si>
+    <t>Goals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -577,18 +577,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -834,14 +834,26 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9"/>
+      <c r="A29" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
+      <c r="A30" s="7">
+        <v>40841</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7"/>
@@ -855,7 +867,7 @@
       </c>
       <c r="C32" s="15">
         <f>SUM(C26:C31)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -72,7 +72,7 @@
     <t>World and Machine</t>
   </si>
   <si>
-    <t>Goals</t>
+    <t xml:space="preserve"> Goals + Use cases</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,7 +588,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -852,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -867,7 +867,7 @@
       </c>
       <c r="C32" s="15">
         <f>SUM(C26:C31)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD4FFF1-35C3-4FF6-9B28-1D8E94991195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Matteo</t>
   </si>
@@ -78,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -577,25 +583,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
@@ -621,7 +627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -632,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -655,9 +661,15 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="7">
+        <v>43763</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7"/>
@@ -676,7 +688,7 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C4:C9)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -684,7 +696,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="27.5">
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" s="19" t="s">
         <v>5</v>
       </c>
@@ -718,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29">
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" s="7">
         <v>43755</v>
       </c>
@@ -777,7 +789,7 @@
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:5" ht="27.5">
+    <row r="23" spans="1:5" ht="27">
       <c r="A23" s="19" t="s">
         <v>6</v>
       </c>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD4FFF1-35C3-4FF6-9B28-1D8E94991195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14598FE8-5815-4D02-B0BB-0884DD6DE03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Matteo</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Goals + Use cases</t>
+  </si>
+  <si>
+    <t>Definitions +  Use cases</t>
   </si>
 </sst>
 </file>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -276,6 +279,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,7 +600,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -671,10 +677,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="7">
+        <v>43765</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7"/>
@@ -688,7 +700,7 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C4:C9)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3">

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14598FE8-5815-4D02-B0BB-0884DD6DE03E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEC891B-0585-4455-AD5C-30490D94DB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Matteo</t>
   </si>
@@ -82,13 +82,16 @@
   </si>
   <si>
     <t>Definitions +  Use cases</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +123,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -217,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -265,6 +276,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,9 +294,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -597,32 +609,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="37.5" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1">
+    <row r="3" spans="1:8" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -633,7 +645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:8" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -644,7 +656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -655,7 +667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:8">
       <c r="A6" s="7">
         <v>43761</v>
       </c>
@@ -666,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:8">
       <c r="A7" s="7">
         <v>43763</v>
       </c>
@@ -677,23 +689,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:8">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="14" t="s">
         <v>4</v>
@@ -703,24 +715,25 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="27">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:8" ht="27.5">
+      <c r="A12" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
@@ -731,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:8">
       <c r="A15" s="7">
         <v>43754</v>
       </c>
@@ -742,7 +755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
+    <row r="16" spans="1:8" ht="29">
       <c r="A16" s="7">
         <v>43755</v>
       </c>
@@ -753,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8">
       <c r="A17" s="7">
         <v>43757</v>
       </c>
@@ -764,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8">
       <c r="A18" s="7">
         <v>43762</v>
       </c>
@@ -775,45 +788,60 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-    </row>
-    <row r="21" spans="1:5">
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>43763</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>43764</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="15">
         <f>SUM(C15:C20)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:8">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-    </row>
-    <row r="23" spans="1:5" ht="27">
-      <c r="A23" s="19" t="s">
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="27.5">
+      <c r="A23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
@@ -824,7 +852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:8">
       <c r="A26" s="7">
         <v>43754</v>
       </c>
@@ -835,7 +863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:8">
       <c r="A27" s="7">
         <v>43758</v>
       </c>
@@ -846,7 +874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:8">
       <c r="A28" s="7">
         <v>43760</v>
       </c>
@@ -857,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:8">
       <c r="A29" s="7">
         <v>43762</v>
       </c>
@@ -868,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:8">
       <c r="A30" s="7">
         <v>40841</v>
       </c>
@@ -879,12 +907,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:8">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="9"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:8">
       <c r="A32" s="13"/>
       <c r="B32" s="14" t="s">
         <v>4</v>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEC891B-0585-4455-AD5C-30490D94DB43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,13 +78,13 @@
     <t>Definitions +  Use cases</t>
   </si>
   <si>
-    <t>S</t>
+    <t>Front page + requirements + document structure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -279,6 +273,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,7 +289,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -601,18 +595,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -623,11 +617,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10"/>
@@ -721,17 +715,17 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="27.5">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
-      <c r="H13" s="23"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
@@ -766,7 +760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:5">
       <c r="A17" s="7">
         <v>43757</v>
       </c>
@@ -777,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:5">
       <c r="A18" s="7">
         <v>43762</v>
       </c>
@@ -788,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:5">
       <c r="A19" s="7">
         <v>43763</v>
       </c>
@@ -799,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:5">
       <c r="A20" s="7">
         <v>43764</v>
       </c>
@@ -810,7 +804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:5">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>4</v>
@@ -821,27 +815,24 @@
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:5">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="H22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="27.5">
-      <c r="A23" s="20" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="27.5">
+      <c r="A23" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" customHeight="1">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" ht="16.5" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
@@ -852,7 +843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:5">
       <c r="A26" s="7">
         <v>43754</v>
       </c>
@@ -863,7 +854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:5">
       <c r="A27" s="7">
         <v>43758</v>
       </c>
@@ -874,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:5">
       <c r="A28" s="7">
         <v>43760</v>
       </c>
@@ -885,7 +876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:5">
       <c r="A29" s="7">
         <v>43762</v>
       </c>
@@ -896,9 +887,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:5">
       <c r="A30" s="7">
-        <v>40841</v>
+        <v>43763</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>15</v>
@@ -907,19 +898,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:8">
+    <row r="31" spans="1:5" ht="43.5">
+      <c r="A31" s="7">
+        <v>43767</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" s="13"/>
       <c r="B32" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="15">
         <f>SUM(C26:C31)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B47B3-1D7D-4579-8973-DC955AE10758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Matteo</t>
   </si>
@@ -79,12 +85,15 @@
   </si>
   <si>
     <t>Front page + requirements + document structure</t>
+  </si>
+  <si>
+    <t>Use cases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -595,25 +604,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
@@ -639,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -650,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -683,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -695,9 +704,15 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="7">
+        <v>43767</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="13"/>
@@ -706,7 +721,7 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C4:C9)</f>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -714,7 +729,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="27.5">
+    <row r="12" spans="1:8" ht="27">
       <c r="A12" s="21" t="s">
         <v>5</v>
       </c>
@@ -749,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="29">
+    <row r="16" spans="1:8" ht="30">
       <c r="A16" s="7">
         <v>43755</v>
       </c>
@@ -820,7 +835,7 @@
       <c r="B22"/>
       <c r="C22"/>
     </row>
-    <row r="23" spans="1:5" ht="27.5">
+    <row r="23" spans="1:5" ht="27">
       <c r="A23" s="21" t="s">
         <v>6</v>
       </c>
@@ -898,7 +913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="43.5">
+    <row r="31" spans="1:5" ht="45">
       <c r="A31" s="7">
         <v>43767</v>
       </c>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B47B3-1D7D-4579-8973-DC955AE10758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F38C43-95DA-46CD-B7FE-A39A115814B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Matteo</t>
   </si>
@@ -612,17 +612,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
@@ -648,7 +648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -659,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -692,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -729,7 +729,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="27">
+    <row r="12" spans="1:8" ht="27.5">
       <c r="A12" s="21" t="s">
         <v>5</v>
       </c>
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="29">
       <c r="A16" s="7">
         <v>43755</v>
       </c>
@@ -820,117 +820,128 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="7">
+        <v>43768</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="15">
-        <f>SUM(C15:C20)</f>
-        <v>12</v>
-      </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="1:5" ht="27">
-      <c r="A23" s="21" t="s">
+      <c r="C22" s="15">
+        <f>SUM(C15:C21)</f>
+        <v>15.5</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+    </row>
+    <row r="24" spans="1:5" ht="27.5">
+      <c r="A24" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C29" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="7">
         <v>43763</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C31" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="45">
-      <c r="A31" s="7">
+    <row r="32" spans="1:5" ht="43.5">
+      <c r="A32" s="7">
         <v>43767</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="15">
-        <f>SUM(C26:C31)</f>
+      <c r="C33" s="15">
+        <f>SUM(C27:C32)</f>
         <v>14</v>
       </c>
     </row>
@@ -938,7 +949,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F38C43-95DA-46CD-B7FE-A39A115814B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,16 +78,16 @@
     <t>Definitions +  Use cases</t>
   </si>
   <si>
-    <t>Front page + requirements + document structure</t>
-  </si>
-  <si>
     <t>Use cases</t>
+  </si>
+  <si>
+    <t>Doc structure + Requirements + DA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -604,18 +598,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -708,7 +702,7 @@
         <v>43767</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="9">
         <v>4</v>
@@ -924,15 +918,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="43.5">
+    <row r="32" spans="1:5" ht="29">
       <c r="A32" s="7">
         <v>43767</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -942,7 +936,7 @@
       </c>
       <c r="C33" s="15">
         <f>SUM(C27:C32)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Matteo</t>
   </si>
@@ -81,7 +81,10 @@
     <t>Use cases</t>
   </si>
   <si>
-    <t>Doc structure + Requirements + DA</t>
+    <t>29/10/2019 + 30/10/2019</t>
+  </si>
+  <si>
+    <t>Doc structure + Requirements + DA + software system attributes</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -608,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -918,15 +921,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="29">
-      <c r="A32" s="7">
-        <v>43767</v>
+    <row r="32" spans="1:5" ht="58">
+      <c r="A32" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C32" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -936,7 +939,7 @@
       </c>
       <c r="C33" s="15">
         <f>SUM(C27:C32)</f>
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3DDC31-971E-4D64-B289-487CA227CA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Matteo</t>
   </si>
@@ -85,12 +91,15 @@
   </si>
   <si>
     <t>Doc structure + Requirements + DA + software system attributes</t>
+  </si>
+  <si>
+    <t>Alloy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -601,18 +610,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -828,117 +837,128 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="7">
+        <v>43769</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="15">
-        <f>SUM(C15:C21)</f>
-        <v>15.5</v>
-      </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="1:5" ht="27.5">
-      <c r="A24" s="21" t="s">
+      <c r="C23" s="15">
+        <f>SUM(C15:C22)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="27.5">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C30" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7">
         <v>43763</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="58">
-      <c r="A32" s="7" t="s">
+    <row r="33" spans="1:3" ht="58">
+      <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="15">
-        <f>SUM(C27:C32)</f>
+      <c r="C34" s="15">
+        <f>SUM(C28:C33)</f>
         <v>18</v>
       </c>
     </row>
@@ -946,7 +966,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -81,10 +81,10 @@
     <t>Use cases</t>
   </si>
   <si>
-    <t>29/10/2019 + 30/10/2019</t>
-  </si>
-  <si>
-    <t>Doc structure + Requirements + DA + software system attributes</t>
+    <t>29/10/2019 + 30/10/2019 + 01/11/2019</t>
+  </si>
+  <si>
+    <t>Doc structure + Requirements + DA + software system attributes + diagrams + user characteristics</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -921,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="58">
+    <row r="32" spans="1:5" ht="72.5">
       <c r="A32" s="7" t="s">
         <v>18</v>
       </c>
@@ -929,7 +929,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -939,7 +939,7 @@
       </c>
       <c r="C33" s="15">
         <f>SUM(C27:C32)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F896A0-28D2-4438-9C23-C07C5C52E867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Matteo</t>
   </si>
@@ -85,12 +91,15 @@
   </si>
   <si>
     <t>Doc structure + Requirements + DA + software system attributes + diagrams + user characteristics</t>
+  </si>
+  <si>
+    <t>Use case diagrams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -601,25 +610,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
@@ -645,7 +654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -656,7 +665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -689,7 +698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -712,102 +721,102 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="7">
+        <v>43770</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="15">
-        <f>SUM(C4:C9)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="27.5">
-      <c r="A12" s="21" t="s">
+      <c r="C11" s="15">
+        <f>SUM(C4:C10)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="27">
+      <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="7">
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
         <v>43754</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C15" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="29">
-      <c r="A16" s="7">
-        <v>43755</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C16" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="7">
-        <v>43757</v>
+        <v>43755</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7">
-        <v>43762</v>
+        <v>43757</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7">
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>13</v>
@@ -818,135 +827,146 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7">
-        <v>43768</v>
+        <v>43764</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="7">
+        <v>43768</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="9">
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="15">
-        <f>SUM(C15:C21)</f>
+      <c r="C23" s="15">
+        <f>SUM(C16:C22)</f>
         <v>15.5</v>
       </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-    </row>
-    <row r="24" spans="1:5" ht="27.5">
-      <c r="A24" s="21" t="s">
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="C24"/>
+    </row>
+    <row r="25" spans="1:5" ht="27">
+      <c r="A25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="25" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C28" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C30" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="7">
         <v>43763</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="72.5">
-      <c r="A32" s="7" t="s">
+    <row r="33" spans="1:3" ht="75">
+      <c r="A33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="15">
-        <f>SUM(C27:C32)</f>
+      <c r="C34" s="15">
+        <f>SUM(C28:C33)</f>
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F896A0-28D2-4438-9C23-C07C5C52E867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Matteo</t>
   </si>
@@ -87,19 +81,22 @@
     <t>Use cases</t>
   </si>
   <si>
-    <t>29/10/2019 + 30/10/2019 + 01/11/2019</t>
-  </si>
-  <si>
-    <t>Doc structure + Requirements + DA + software system attributes + diagrams + user characteristics</t>
-  </si>
-  <si>
     <t>Use case diagrams</t>
+  </si>
+  <si>
+    <t>Domain assumptions +  Software Sys Attr</t>
+  </si>
+  <si>
+    <t>State diagrams + User characteristics</t>
+  </si>
+  <si>
+    <t>Doc structure + Requirements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -173,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -233,11 +230,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -289,6 +310,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,33 +652,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10"/>
@@ -654,7 +696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -665,7 +707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -698,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -725,7 +767,7 @@
         <v>43770</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="9">
         <v>2</v>
@@ -746,12 +788,12 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="27">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:8" ht="27.5">
+      <c r="A13" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="11"/>
@@ -781,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:5" ht="29">
       <c r="A17" s="7">
         <v>43755</v>
       </c>
@@ -863,12 +905,12 @@
       <c r="B24"/>
       <c r="C24"/>
     </row>
-    <row r="25" spans="1:5" ht="27">
-      <c r="A25" s="21" t="s">
+    <row r="25" spans="1:5" ht="27.5">
+      <c r="A25" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" spans="1:5" ht="16.5" customHeight="1">
       <c r="A26" s="11"/>
@@ -941,24 +983,96 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="75">
-      <c r="A33" s="7" t="s">
-        <v>18</v>
+    <row r="33" spans="1:3" ht="29">
+      <c r="A33" s="7">
+        <v>43767</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="29">
+      <c r="A34" s="20">
+        <v>43768</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+      <c r="C34" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="29">
+      <c r="A35" s="23">
+        <v>43770</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="19"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="15">
-        <f>SUM(C28:C33)</f>
+      <c r="C46" s="22">
+        <f>SUM(C28:C45)</f>
         <v>20</v>
       </c>
     </row>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F896A0-28D2-4438-9C23-C07C5C52E867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49976367-8F94-4F2D-9BA8-07DE9970F8B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Matteo</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Use case diagrams</t>
+  </si>
+  <si>
+    <t>Alloy</t>
   </si>
 </sst>
 </file>
@@ -618,17 +621,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
@@ -654,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -665,7 +668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -698,7 +701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -746,7 +749,7 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="27">
+    <row r="13" spans="1:8" ht="27.5">
       <c r="A13" s="21" t="s">
         <v>5</v>
       </c>
@@ -781,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:9" ht="29">
       <c r="A17" s="7">
         <v>43755</v>
       </c>
@@ -792,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:9">
       <c r="A18" s="7">
         <v>43757</v>
       </c>
@@ -802,8 +805,9 @@
       <c r="C18" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="7">
         <v>43762</v>
       </c>
@@ -814,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:9">
       <c r="A20" s="7">
         <v>43763</v>
       </c>
@@ -825,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>43764</v>
       </c>
@@ -836,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:9">
       <c r="A22" s="7">
         <v>43768</v>
       </c>
@@ -847,118 +851,129 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="7">
+        <v>43769</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="15">
-        <f>SUM(C16:C22)</f>
-        <v>15.5</v>
-      </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="1:5" ht="27">
-      <c r="A25" s="21" t="s">
+      <c r="C24" s="15">
+        <f>SUM(C16:C23)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="27.5">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7">
+    <row r="29" spans="1:9">
+      <c r="A29" s="7">
         <v>43754</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C29" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7">
+    <row r="30" spans="1:9">
+      <c r="A30" s="7">
         <v>43758</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7">
+    <row r="31" spans="1:9">
+      <c r="A31" s="7">
         <v>43760</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C31" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7">
+    <row r="32" spans="1:9">
+      <c r="A32" s="7">
         <v>43762</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7">
+    <row r="33" spans="1:3">
+      <c r="A33" s="7">
         <v>43763</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="75">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:3" ht="72.5">
+      <c r="A34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C34" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="15">
-        <f>SUM(C28:C33)</f>
+      <c r="C35" s="15">
+        <f>SUM(C29:C34)</f>
         <v>20</v>
       </c>
     </row>
@@ -966,7 +981,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F896A0-28D2-4438-9C23-C07C5C52E867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99160973-0523-4452-B17F-1EADCFD78011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Matteo</t>
   </si>
@@ -93,7 +93,10 @@
     <t>Doc structure + Requirements + DA + software system attributes + diagrams + user characteristics</t>
   </si>
   <si>
-    <t>Use case diagrams</t>
+    <t>Alloy</t>
+  </si>
+  <si>
+    <t>Use case diagrams + sequence diagrams</t>
   </si>
 </sst>
 </file>
@@ -618,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -720,15 +723,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="30">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -738,7 +741,7 @@
       </c>
       <c r="C11" s="15">
         <f>SUM(C4:C10)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -781,7 +784,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
+    <row r="17" spans="1:9" ht="30">
       <c r="A17" s="7">
         <v>43755</v>
       </c>
@@ -792,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:9">
       <c r="A18" s="7">
         <v>43757</v>
       </c>
@@ -802,8 +805,9 @@
       <c r="C18" s="9">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="7">
         <v>43762</v>
       </c>
@@ -814,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:9">
       <c r="A20" s="7">
         <v>43763</v>
       </c>
@@ -825,7 +829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>43764</v>
       </c>
@@ -836,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:9">
       <c r="A22" s="7">
         <v>43768</v>
       </c>
@@ -847,118 +851,129 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+    <row r="23" spans="1:9">
+      <c r="A23" s="7">
+        <v>43769</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="15">
-        <f>SUM(C16:C22)</f>
-        <v>15.5</v>
-      </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-    </row>
-    <row r="25" spans="1:5" ht="27">
-      <c r="A25" s="21" t="s">
+      <c r="C24" s="15">
+        <f>SUM(C16:C23)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A26" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="5" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="27">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="7">
+    <row r="29" spans="1:9">
+      <c r="A29" s="7">
         <v>43754</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C29" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="7">
+    <row r="30" spans="1:9">
+      <c r="A30" s="7">
         <v>43758</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C30" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="7">
+    <row r="31" spans="1:9">
+      <c r="A31" s="7">
         <v>43760</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C31" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="7">
+    <row r="32" spans="1:9">
+      <c r="A32" s="7">
         <v>43762</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C32" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="7">
+    <row r="33" spans="1:3">
+      <c r="A33" s="7">
         <v>43763</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C33" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="75">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:3" ht="75">
+      <c r="A34" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C34" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="15">
-        <f>SUM(C28:C33)</f>
+      <c r="C35" s="15">
+        <f>SUM(C29:C34)</f>
         <v>20</v>
       </c>
     </row>
@@ -966,7 +981,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99160973-0523-4452-B17F-1EADCFD78011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CFF0D7-2ED0-489A-AF24-F7E1D0F2CEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7695" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Matteo</t>
   </si>
@@ -87,16 +87,19 @@
     <t>Use cases</t>
   </si>
   <si>
-    <t>29/10/2019 + 30/10/2019 + 01/11/2019</t>
-  </si>
-  <si>
-    <t>Doc structure + Requirements + DA + software system attributes + diagrams + user characteristics</t>
-  </si>
-  <si>
     <t>Alloy</t>
   </si>
   <si>
     <t>Use case diagrams + sequence diagrams</t>
+  </si>
+  <si>
+    <t>Domain assumptions +  Software Sys Attr</t>
+  </si>
+  <si>
+    <t>State diagrams + User characteristics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doc structure + Requirements </t>
   </si>
 </sst>
 </file>
@@ -176,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -236,11 +239,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -306,6 +333,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -728,7 +773,7 @@
         <v>43770</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9">
         <v>4</v>
@@ -856,7 +901,7 @@
         <v>43769</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="9">
         <v>1.5</v>
@@ -956,24 +1001,46 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="75">
-      <c r="A34" s="7" t="s">
-        <v>18</v>
+    <row r="34" spans="1:3" ht="30">
+      <c r="A34" s="7">
+        <v>43767</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C34" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="15">
-        <f>SUM(C29:C34)</f>
+    </row>
+    <row r="35" spans="1:3" ht="30">
+      <c r="A35" s="25">
+        <v>43768</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30">
+      <c r="A36" s="28">
+        <v>43770</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="15">
+        <f>SUM(C29:C36)</f>
         <v>20</v>
       </c>
     </row>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CFF0D7-2ED0-489A-AF24-F7E1D0F2CEE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="7695" yWindow="2175" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7700" yWindow="2180" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Matteo</t>
   </si>
@@ -100,12 +94,15 @@
   </si>
   <si>
     <t xml:space="preserve">Doc structure + Requirements </t>
+  </si>
+  <si>
+    <t>Design constraints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -267,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,6 +316,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -334,22 +349,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -658,33 +664,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10"/>
@@ -702,7 +708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -713,7 +719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -746,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -768,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30">
+    <row r="10" spans="1:8" ht="29">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
@@ -794,12 +800,12 @@
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="27">
-      <c r="A13" s="21" t="s">
+    <row r="13" spans="1:8" ht="27.5">
+      <c r="A13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="11"/>
@@ -829,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="29">
       <c r="A17" s="7">
         <v>43755</v>
       </c>
@@ -924,13 +930,13 @@
       <c r="C25"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" ht="27">
+      <c r="B26" s="28"/>
+      <c r="C26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" ht="27.5">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1001,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30">
+    <row r="34" spans="1:3" ht="29">
       <c r="A34" s="7">
         <v>43767</v>
       </c>
@@ -1012,36 +1018,77 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30">
-      <c r="A35" s="25">
+    <row r="35" spans="1:3" ht="29">
+      <c r="A35" s="20">
         <v>43768</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
-      <c r="A36" s="28">
+    <row r="36" spans="1:3" ht="29">
+      <c r="A36" s="23">
         <v>43770</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="29">
+      <c r="C36" s="24">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
+      <c r="A37" s="20">
+        <v>43771</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="32"/>
+      <c r="B44" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="15">
-        <f>SUM(C29:C36)</f>
-        <v>20</v>
+      <c r="C44" s="32">
+        <f>SUM(C29:C43)</f>
+        <v>20.5</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Matteo</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>Design constraints</t>
+  </si>
+  <si>
+    <t>Software interfaces</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -334,6 +337,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,13 +361,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,7 +670,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -675,7 +681,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -686,11 +692,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10"/>
@@ -801,11 +807,11 @@
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="27.5">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="11"/>
@@ -930,11 +936,11 @@
       <c r="C25"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
     </row>
     <row r="27" spans="1:9" ht="27.5">
       <c r="A27" s="11"/>
@@ -1047,48 +1053,54 @@
       <c r="B37" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="A38" s="23">
+        <v>43772</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="33">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="32" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="32">
+      <c r="C44" s="27">
         <f>SUM(C29:C43)</f>
-        <v>20.5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770E0FD9-616F-4B15-B832-8B41BA15E35E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7700" yWindow="2180" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Matteo</t>
   </si>
@@ -100,12 +106,15 @@
   </si>
   <si>
     <t>Software interfaces</t>
+  </si>
+  <si>
+    <t>Sequence diagrams</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -346,6 +355,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,9 +372,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,33 +679,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="10"/>
@@ -714,7 +723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -725,7 +734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -758,7 +767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -780,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29">
+    <row r="10" spans="1:8" ht="30">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
@@ -792,103 +801,103 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="7">
+        <v>43772</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="15">
-        <f>SUM(C4:C10)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="27.5">
-      <c r="A13" s="30" t="s">
+      <c r="C12" s="15">
+        <f>SUM(C4:C11)</f>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="27">
+      <c r="A14" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="7">
+    <row r="17" spans="1:9">
+      <c r="A17" s="7">
         <v>43754</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="29">
-      <c r="A17" s="7">
-        <v>43755</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C17" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" ht="30">
       <c r="A18" s="7">
-        <v>43757</v>
+        <v>43755</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="I18" s="16"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7">
-        <v>43762</v>
+        <v>43757</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C19" s="9">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7">
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>13</v>
@@ -899,179 +908,185 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7">
-        <v>43768</v>
+        <v>43764</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="9">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7">
+        <v>43768</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="7">
         <v>43769</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C24" s="9">
         <v>1.5</v>
       </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="15">
-        <f>SUM(C16:C23)</f>
+      <c r="C25" s="15">
+        <f>SUM(C17:C24)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-    </row>
-    <row r="26" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A27" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
-    </row>
-    <row r="27" spans="1:9" ht="27.5">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+    </row>
+    <row r="28" spans="1:9" ht="27">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C30" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C31" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C32" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7">
         <v>43763</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C34" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="29">
-      <c r="A34" s="7">
+    <row r="35" spans="1:3" ht="30">
+      <c r="A35" s="7">
         <v>43767</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C35" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="29">
-      <c r="A35" s="20">
+    <row r="36" spans="1:3" ht="30">
+      <c r="A36" s="20">
         <v>43768</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B36" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C36" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="29">
-      <c r="A36" s="23">
+    <row r="37" spans="1:3" ht="30">
+      <c r="A37" s="23">
         <v>43770</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B37" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C37" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="20">
+    <row r="38" spans="1:3">
+      <c r="A38" s="20">
         <v>43771</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B38" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C38" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="23">
+    <row r="39" spans="1:3">
+      <c r="A39" s="23">
         <v>43772</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B39" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C39" s="28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="25"/>
@@ -1094,20 +1109,25 @@
       <c r="C43" s="25"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="27">
-        <f>SUM(C29:C43)</f>
+      <c r="C45" s="27">
+        <f>SUM(C30:C44)</f>
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A27:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770E0FD9-616F-4B15-B832-8B41BA15E35E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC73B2DD-B63A-4513-BAD1-6EC683FB9C91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="27">
   <si>
     <t>Matteo</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Sequence diagrams</t>
+  </si>
+  <si>
+    <t>Various</t>
   </si>
 </sst>
 </file>
@@ -687,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,103 +815,103 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="7">
+        <v>43773</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="15">
-        <f>SUM(C4:C11)</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="27">
-      <c r="A14" s="31" t="s">
+      <c r="C13" s="15">
+        <f>SUM(C4:C12)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="27">
+      <c r="A15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7">
+    <row r="18" spans="1:9">
+      <c r="A18" s="7">
         <v>43754</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="30">
-      <c r="A18" s="7">
-        <v>43755</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C18" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="30">
       <c r="A19" s="7">
-        <v>43757</v>
+        <v>43755</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="I19" s="16"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7">
-        <v>43762</v>
+        <v>43757</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7">
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
@@ -919,179 +922,185 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7">
-        <v>43768</v>
+        <v>43764</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="9">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
+        <v>43768</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="7">
         <v>43769</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C25" s="9">
         <v>1.5</v>
       </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15">
-        <f>SUM(C17:C24)</f>
+      <c r="C26" s="15">
+        <f>SUM(C18:C25)</f>
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A27" s="31" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" ht="27">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="5" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+    </row>
+    <row r="29" spans="1:9" ht="27">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C31" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C33" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7">
         <v>43763</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C35" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30">
-      <c r="A35" s="7">
+    <row r="36" spans="1:3" ht="30">
+      <c r="A36" s="7">
         <v>43767</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C36" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
-      <c r="A36" s="20">
+    <row r="37" spans="1:3" ht="30">
+      <c r="A37" s="20">
         <v>43768</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B37" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C37" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30">
-      <c r="A37" s="23">
+    <row r="38" spans="1:3" ht="30">
+      <c r="A38" s="23">
         <v>43770</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B38" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C38" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="20">
+    <row r="39" spans="1:3">
+      <c r="A39" s="20">
         <v>43771</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C39" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="23">
+    <row r="40" spans="1:3">
+      <c r="A40" s="23">
         <v>43772</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B40" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C40" s="28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="25"/>
@@ -1114,20 +1123,25 @@
       <c r="C44" s="25"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="27">
-        <f>SUM(C30:C44)</f>
+      <c r="C46" s="27">
+        <f>SUM(C31:C45)</f>
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770E0FD9-616F-4B15-B832-8B41BA15E35E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F993CD39-830C-4B61-90C2-E98A26EB955C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Matteo</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Sequence diagrams</t>
+  </si>
+  <si>
+    <t>General aspects + Alloy</t>
   </si>
 </sst>
 </file>
@@ -687,17 +690,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
@@ -723,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -734,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -767,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -789,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30">
+    <row r="10" spans="1:8" ht="29">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
@@ -826,7 +829,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="27">
+    <row r="14" spans="1:8" ht="27.5">
       <c r="A14" s="31" t="s">
         <v>5</v>
       </c>
@@ -861,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="29">
       <c r="A18" s="7">
         <v>43755</v>
       </c>
@@ -941,71 +944,71 @@
       <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="7">
+        <v>43770</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="7">
+        <v>43773</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="15">
-        <f>SUM(C17:C24)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-    </row>
-    <row r="27" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A27" s="31" t="s">
+      <c r="C27" s="15">
+        <f>SUM(C17:C26)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+    </row>
+    <row r="29" spans="1:9" ht="27.5">
+      <c r="A29" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-    </row>
-    <row r="28" spans="1:9" ht="27">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+    </row>
+    <row r="30" spans="1:9" ht="27.5">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="7">
-        <v>43758</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="9">
-        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7">
-        <v>43760</v>
+        <v>43754</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C32" s="9">
         <v>3</v>
@@ -1013,90 +1016,102 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7">
-        <v>43762</v>
+        <v>43758</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C33" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7">
+        <v>43760</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7">
         <v>43763</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C36" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30">
-      <c r="A35" s="7">
+    <row r="37" spans="1:3" ht="29">
+      <c r="A37" s="7">
         <v>43767</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C37" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
-      <c r="A36" s="20">
+    <row r="38" spans="1:3" ht="29">
+      <c r="A38" s="20">
         <v>43768</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B38" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C38" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30">
-      <c r="A37" s="23">
+    <row r="39" spans="1:3" ht="29">
+      <c r="A39" s="23">
         <v>43770</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B39" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C39" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="20">
+    <row r="40" spans="1:3">
+      <c r="A40" s="20">
         <v>43771</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B40" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C40" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="23">
+    <row r="41" spans="1:3">
+      <c r="A41" s="23">
         <v>43772</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B41" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="28">
+      <c r="C41" s="28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="25"/>
@@ -1114,12 +1129,22 @@
       <c r="C44" s="25"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27" t="s">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="27">
-        <f>SUM(C30:C44)</f>
+      <c r="C47" s="27">
+        <f>SUM(C32:C46)</f>
         <v>21</v>
       </c>
     </row>
@@ -1127,7 +1152,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F993CD39-830C-4B61-90C2-E98A26EB955C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCAC996-8C37-410E-86D4-C5845F37C784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Matteo</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>General aspects + Alloy</t>
+  </si>
+  <si>
+    <t>Various</t>
   </si>
 </sst>
 </file>
@@ -690,17 +693,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
@@ -726,7 +729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29">
+    <row r="4" spans="1:8" ht="30">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -737,7 +740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29">
+    <row r="5" spans="1:8" ht="30">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -770,7 +773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -792,7 +795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29">
+    <row r="10" spans="1:8" ht="30">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
@@ -815,103 +818,103 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14" t="s">
+      <c r="A12" s="7">
+        <v>43773</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="15">
-        <f>SUM(C4:C11)</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="27.5">
-      <c r="A14" s="31" t="s">
+      <c r="C13" s="15">
+        <f>SUM(C4:C12)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="27">
+      <c r="A15" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7">
+    <row r="18" spans="1:9">
+      <c r="A18" s="7">
         <v>43754</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="29">
-      <c r="A18" s="7">
-        <v>43755</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C18" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" ht="30">
       <c r="A19" s="7">
-        <v>43757</v>
+        <v>43755</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="I19" s="16"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7">
-        <v>43762</v>
+        <v>43757</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C20" s="9">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7">
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
@@ -922,201 +925,207 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7">
-        <v>43768</v>
+        <v>43764</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="9">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
-        <v>43769</v>
+        <v>43768</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C24" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E24" s="16"/>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7">
-        <v>43770</v>
-      </c>
-      <c r="B25" s="22" t="s">
+        <v>43769</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="9">
         <v>1.5</v>
       </c>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
-        <v>43773</v>
+        <v>43770</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C26" s="19">
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:9" ht="30">
+      <c r="A27" s="7">
+        <v>43773</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="15">
-        <f>SUM(C17:C26)</f>
+      <c r="C28" s="15">
+        <f>SUM(C18:C27)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-    </row>
-    <row r="29" spans="1:9" ht="27.5">
-      <c r="A29" s="31" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+    </row>
+    <row r="30" spans="1:9" ht="27">
+      <c r="A30" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-    </row>
-    <row r="30" spans="1:9" ht="27.5">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="5" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+    </row>
+    <row r="31" spans="1:9" ht="27">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="C32" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C33" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C35" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7">
         <v>43763</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C37" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="29">
-      <c r="A37" s="7">
+    <row r="38" spans="1:3" ht="30">
+      <c r="A38" s="7">
         <v>43767</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C38" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="29">
-      <c r="A38" s="20">
+    <row r="39" spans="1:3" ht="30">
+      <c r="A39" s="20">
         <v>43768</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B39" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C39" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="29">
-      <c r="A39" s="23">
+    <row r="40" spans="1:3" ht="30">
+      <c r="A40" s="23">
         <v>43770</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B40" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C40" s="24">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="20">
+    <row r="41" spans="1:3">
+      <c r="A41" s="20">
         <v>43771</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B41" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C41" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="23">
+    <row r="42" spans="1:3">
+      <c r="A42" s="23">
         <v>43772</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B42" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="28">
+      <c r="C42" s="28">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="25"/>
@@ -1139,20 +1148,25 @@
       <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="27"/>
-      <c r="B47" s="27" t="s">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="27">
-        <f>SUM(C32:C46)</f>
+      <c r="C48" s="27">
+        <f>SUM(C33:C47)</f>
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCAC996-8C37-410E-86D4-C5845F37C784}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Matteo</t>
   </si>
@@ -115,12 +109,15 @@
   </si>
   <si>
     <t>Various</t>
+  </si>
+  <si>
+    <t>Product functions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -685,25 +682,25 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.5" customHeight="1">
@@ -729,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30">
+    <row r="4" spans="1:8" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -740,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30">
+    <row r="5" spans="1:8" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -773,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30">
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -795,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30">
+    <row r="10" spans="1:8" ht="29">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
@@ -843,7 +840,7 @@
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="27">
+    <row r="15" spans="1:8" ht="27.5">
       <c r="A15" s="31" t="s">
         <v>5</v>
       </c>
@@ -878,7 +875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="29">
       <c r="A19" s="7">
         <v>43755</v>
       </c>
@@ -968,7 +965,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="30">
+    <row r="27" spans="1:9">
       <c r="A27" s="7">
         <v>43773</v>
       </c>
@@ -994,14 +991,14 @@
       <c r="B29"/>
       <c r="C29"/>
     </row>
-    <row r="30" spans="1:9" ht="27">
+    <row r="30" spans="1:9" ht="27.5">
       <c r="A30" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="33"/>
     </row>
-    <row r="31" spans="1:9" ht="27">
+    <row r="31" spans="1:9" ht="27.5">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1072,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3" ht="29">
       <c r="A38" s="7">
         <v>43767</v>
       </c>
@@ -1080,10 +1077,10 @@
         <v>22</v>
       </c>
       <c r="C38" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="29">
       <c r="A39" s="20">
         <v>43768</v>
       </c>
@@ -1094,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="29">
       <c r="A40" s="23">
         <v>43770</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1128,9 +1125,15 @@
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="23">
+        <v>43773</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="28">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="25"/>
@@ -1159,7 +1162,7 @@
       </c>
       <c r="C48" s="27">
         <f>SUM(C33:C47)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1DD054-EC78-41DA-87A7-6BF69D63E365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Matteo</t>
   </si>
@@ -117,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -279,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -375,6 +381,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,18 +691,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -977,173 +986,185 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="7">
+        <v>43774</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="15">
-        <f>SUM(C18:C27)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-    </row>
-    <row r="30" spans="1:9" ht="27.5">
-      <c r="A30" s="31" t="s">
+      <c r="C29" s="15">
+        <f>SUM(C18:C28)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+    </row>
+    <row r="31" spans="1:9" ht="27.5">
+      <c r="A31" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-    </row>
-    <row r="31" spans="1:9" ht="27.5">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="5" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+    </row>
+    <row r="32" spans="1:9" ht="27.5">
+      <c r="A32" s="11"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C34" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C35" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C36" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7">
         <v>43763</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C38" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="29">
-      <c r="A38" s="7">
+    <row r="39" spans="1:3" ht="29">
+      <c r="A39" s="7">
         <v>43767</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C39" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="29">
-      <c r="A39" s="20">
+    <row r="40" spans="1:3" ht="29">
+      <c r="A40" s="20">
         <v>43768</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B40" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C40" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="29">
-      <c r="A40" s="23">
+    <row r="41" spans="1:3" ht="29">
+      <c r="A41" s="23">
         <v>43770</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B41" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="24">
+      <c r="C41" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="20">
+    <row r="42" spans="1:3">
+      <c r="A42" s="20">
         <v>43771</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B42" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="23">
-        <v>43772</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="28">
+      <c r="C42" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="23">
+        <v>43772</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="23">
         <v>43773</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B44" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="28">
+      <c r="C44" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-    </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="34">
+        <v>43774</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="25">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="25"/>
@@ -1156,20 +1177,25 @@
       <c r="C47" s="25"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="27"/>
-      <c r="B48" s="27" t="s">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="27">
-        <f>SUM(C33:C47)</f>
-        <v>24</v>
+      <c r="C49" s="27">
+        <f>SUM(C34:C48)</f>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1DD054-EC78-41DA-87A7-6BF69D63E365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886A61EF-E455-4865-A9A7-0D1A2C5914FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>Matteo</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Product functions</t>
+  </si>
+  <si>
+    <t>Requirements + RASD</t>
   </si>
 </sst>
 </file>
@@ -367,6 +370,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -381,9 +387,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -699,32 +702,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" ht="37.5" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1">
+    <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -735,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -746,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="29">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -757,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:3">
       <c r="A6" s="7">
         <v>43761</v>
       </c>
@@ -768,7 +771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:3">
       <c r="A7" s="7">
         <v>43763</v>
       </c>
@@ -779,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -790,7 +793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:3">
       <c r="A9" s="7">
         <v>43767</v>
       </c>
@@ -801,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="29">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
@@ -812,7 +815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:3">
       <c r="A11" s="7">
         <v>43772</v>
       </c>
@@ -823,7 +826,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:3">
       <c r="A12" s="7">
         <v>43773</v>
       </c>
@@ -834,104 +837,104 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="7">
+        <v>43775</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="15">
-        <f>SUM(C4:C12)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="27.5">
-      <c r="A15" s="31" t="s">
+      <c r="C14" s="15">
+        <f>SUM(C4:C13)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="27">
+      <c r="A16" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="7">
+    <row r="19" spans="1:9">
+      <c r="A19" s="7">
         <v>43754</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="29">
-      <c r="A19" s="7">
-        <v>43755</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C19" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" ht="30">
       <c r="A20" s="7">
-        <v>43757</v>
+        <v>43755</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="9">
-        <v>1</v>
-      </c>
-      <c r="I20" s="16"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7">
-        <v>43762</v>
+        <v>43757</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C21" s="9">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7">
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
@@ -942,234 +945,240 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
-        <v>43768</v>
+        <v>43764</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7">
-        <v>43769</v>
+        <v>43768</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C25" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E25" s="16"/>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
-        <v>43770</v>
-      </c>
-      <c r="B26" s="22" t="s">
+        <v>43769</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="9">
         <v>1.5</v>
       </c>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7">
-        <v>43773</v>
+        <v>43770</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C27" s="19">
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5" customHeight="1">
+    <row r="28" spans="1:9" ht="30">
       <c r="A28" s="7">
+        <v>43773</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A29" s="7">
         <v>43774</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B29" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C29" s="19">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="15">
-        <f>SUM(C18:C28)</f>
+      <c r="C30" s="15">
+        <f>SUM(C19:C29)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="1:9" ht="27.5">
-      <c r="A31" s="31" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+    </row>
+    <row r="32" spans="1:9" ht="27">
+      <c r="A32" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-    </row>
-    <row r="32" spans="1:9" ht="27.5">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+    </row>
+    <row r="33" spans="1:3" ht="27">
+      <c r="A33" s="11"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C35" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C36" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C37" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7">
         <v>43763</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C39" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="29">
-      <c r="A39" s="7">
+    <row r="40" spans="1:3" ht="30">
+      <c r="A40" s="7">
         <v>43767</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C40" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="29">
-      <c r="A40" s="20">
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" s="20">
         <v>43768</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B41" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C41" s="19">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="29">
-      <c r="A41" s="23">
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" s="23">
         <v>43770</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B42" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C42" s="24">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="20">
+    <row r="43" spans="1:3">
+      <c r="A43" s="20">
         <v>43771</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B43" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="23">
-        <v>43772</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="28">
+      <c r="C43" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="23">
+        <v>43772</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="23">
         <v>43773</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B45" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="28">
+      <c r="C45" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="34">
+    <row r="46" spans="1:3">
+      <c r="A46" s="29">
         <v>43774</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B46" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="25">
+      <c r="C46" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="25"/>
@@ -1182,20 +1191,25 @@
       <c r="C48" s="25"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27" t="s">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="27">
-        <f>SUM(C34:C48)</f>
+      <c r="C50" s="27">
+        <f>SUM(C35:C49)</f>
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A32:C32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886A61EF-E455-4865-A9A7-0D1A2C5914FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Matteo</t>
   </si>
@@ -121,12 +115,15 @@
   </si>
   <si>
     <t>Requirements + RASD</t>
+  </si>
+  <si>
+    <t>Alloy + RASD fix</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -288,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -368,9 +365,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,33 +688,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10"/>
@@ -738,7 +732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -749,7 +743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -782,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -804,7 +798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="29">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
@@ -863,12 +857,12 @@
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="27">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:3" ht="27.5">
+      <c r="A16" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1">
       <c r="A17" s="11"/>
@@ -898,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:9" ht="29">
       <c r="A20" s="7">
         <v>43755</v>
       </c>
@@ -988,7 +982,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9">
       <c r="A28" s="7">
         <v>43773</v>
       </c>
@@ -1025,14 +1019,14 @@
       <c r="B31"/>
       <c r="C31"/>
     </row>
-    <row r="32" spans="1:9" ht="27">
-      <c r="A32" s="32" t="s">
+    <row r="32" spans="1:9" ht="27.5">
+      <c r="A32" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-    </row>
-    <row r="33" spans="1:3" ht="27">
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+    </row>
+    <row r="33" spans="1:3" ht="27.5">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1103,7 +1097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="29">
       <c r="A40" s="7">
         <v>43767</v>
       </c>
@@ -1114,7 +1108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="29">
       <c r="A41" s="20">
         <v>43768</v>
       </c>
@@ -1125,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30">
+    <row r="42" spans="1:3" ht="29">
       <c r="A42" s="23">
         <v>43770</v>
       </c>
@@ -1170,25 +1164,37 @@
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="29">
+      <c r="A46" s="23">
         <v>43774</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="23">
+        <v>43775</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="28">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="23">
+        <v>43776</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="28">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="25"/>
@@ -1202,7 +1208,7 @@
       </c>
       <c r="C50" s="27">
         <f>SUM(C35:C49)</f>
-        <v>26</v>
+        <v>29.5</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -688,7 +688,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1193,7 +1193,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="28">
-        <v>0.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="C50" s="27">
         <f>SUM(C35:C49)</f>
-        <v>29.5</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886A61EF-E455-4865-A9A7-0D1A2C5914FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE550C48-B001-4230-A261-5FF6008E3145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Matteo</t>
   </si>
@@ -702,17 +702,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
@@ -738,7 +738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -782,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -804,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="29">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
@@ -863,7 +863,7 @@
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:3" ht="27">
+    <row r="16" spans="1:3" ht="27.5">
       <c r="A16" s="32" t="s">
         <v>5</v>
       </c>
@@ -898,7 +898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:9" ht="29">
       <c r="A20" s="7">
         <v>43755</v>
       </c>
@@ -988,7 +988,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9">
       <c r="A28" s="7">
         <v>43773</v>
       </c>
@@ -1011,184 +1011,196 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="7">
+        <v>43775</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="15">
-        <f>SUM(C19:C29)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-    </row>
-    <row r="32" spans="1:9" ht="27">
-      <c r="A32" s="32" t="s">
+      <c r="C31" s="15">
+        <f>SUM(C19:C30)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="1:3" ht="27.5">
+      <c r="A33" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-    </row>
-    <row r="33" spans="1:3" ht="27">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="34"/>
+    </row>
+    <row r="34" spans="1:3" ht="27.5">
+      <c r="A34" s="11"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="9">
+      <c r="C35" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C36" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C37" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C38" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7">
         <v>43763</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B40" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C40" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
-      <c r="A40" s="7">
+    <row r="41" spans="1:3" ht="29">
+      <c r="A41" s="7">
         <v>43767</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C41" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="20">
+    <row r="42" spans="1:3" ht="29">
+      <c r="A42" s="20">
         <v>43768</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B42" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="30">
-      <c r="A42" s="23">
+      <c r="C42" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="29">
+      <c r="A43" s="23">
         <v>43770</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="20">
+      <c r="C43" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="20">
         <v>43771</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B44" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="23">
-        <v>43772</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="28">
+      <c r="C44" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="23">
+        <v>43772</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="23">
         <v>43773</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B46" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C46" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="29">
+    <row r="47" spans="1:3">
+      <c r="A47" s="29">
         <v>43774</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B47" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C47" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-    </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="29">
+        <v>43775</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="25"/>
@@ -1196,20 +1208,25 @@
       <c r="C49" s="25"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="27"/>
-      <c r="B50" s="27" t="s">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="27">
-        <f>SUM(C35:C49)</f>
-        <v>26</v>
+      <c r="C51" s="27">
+        <f>SUM(C36:C50)</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA04C5-59EF-4B39-A0BB-DEE6D8CCFC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCDFF44-96C3-4F18-A79B-FD47E217F588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>Matteo</t>
   </si>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>Alloy + RASD fix</t>
+  </si>
+  <si>
+    <t>Alloy + Review</t>
   </si>
 </sst>
 </file>
@@ -705,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1025,71 +1028,71 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="7">
+        <v>43776</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7">
+        <v>43777</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="15">
-        <f>SUM(C19:C30)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="1:3" ht="27.5">
-      <c r="A33" s="32" t="s">
+      <c r="C33" s="15">
+        <f>SUM(C19:C32)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="1:3" ht="27.5">
+      <c r="A35" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-    </row>
-    <row r="34" spans="1:3" ht="27.5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="34"/>
+    </row>
+    <row r="36" spans="1:3" ht="27.5">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7">
-        <v>43758</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="9">
-        <v>2</v>
+      <c r="C37" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="7">
-        <v>43760</v>
+        <v>43754</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C38" s="9">
         <v>3</v>
@@ -1097,137 +1100,159 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7">
-        <v>43762</v>
+        <v>43758</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C39" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7">
+        <v>43760</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7">
         <v>43763</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C42" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="29">
-      <c r="A41" s="7">
+    <row r="43" spans="1:3" ht="29">
+      <c r="A43" s="7">
         <v>43767</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C43" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="29">
-      <c r="A42" s="20">
+    <row r="44" spans="1:3" ht="29">
+      <c r="A44" s="20">
         <v>43768</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B44" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="29">
-      <c r="A43" s="23">
+      <c r="C44" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="29">
+      <c r="A45" s="23">
         <v>43770</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B45" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="20">
+      <c r="C45" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="20">
         <v>43771</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B46" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C46" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="23">
+    <row r="47" spans="1:3">
+      <c r="A47" s="23">
         <v>43772</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B47" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C47" s="28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="23">
+    <row r="48" spans="1:3">
+      <c r="A48" s="23">
         <v>43773</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B48" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C48" s="28">
         <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="29">
-        <v>43774</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="29">
-        <v>43775</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="25">
-        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="29">
-        <v>43776</v>
+        <v>43774</v>
       </c>
       <c r="B49" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="29">
+        <v>43775</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27" t="s">
+      <c r="A51" s="29">
+        <v>43776</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="27">
-        <f>SUM(C36:C50)</f>
+      <c r="C53" s="27">
+        <f>SUM(C38:C52)</f>
         <v>32</v>
       </c>
     </row>
@@ -1235,7 +1260,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA04C5-59EF-4B39-A0BB-DEE6D8CCFC07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E9DC8B-E702-4AD4-8B73-34434A400D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Matteo</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Alloy + RASD fix</t>
+  </si>
+  <si>
+    <t>RASD</t>
+  </si>
+  <si>
+    <t>Alloy + Review</t>
   </si>
 </sst>
 </file>
@@ -705,17 +711,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
@@ -741,7 +747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -752,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -785,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -807,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
@@ -852,103 +858,103 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="7">
+        <v>43777</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="15">
-        <f>SUM(C4:C13)</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="27.5">
-      <c r="A16" s="32" t="s">
+      <c r="C15" s="15">
+        <f>SUM(C4:C14)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="27">
+      <c r="A17" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="7">
+      <c r="C19" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="7">
         <v>43754</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="29">
-      <c r="A20" s="7">
-        <v>43755</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C20" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" ht="30">
       <c r="A21" s="7">
-        <v>43757</v>
+        <v>43755</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="I21" s="16"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7">
-        <v>43762</v>
+        <v>43757</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C22" s="9">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
@@ -959,283 +965,316 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7">
-        <v>43768</v>
+        <v>43764</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
-        <v>43769</v>
+        <v>43768</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C26" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E26" s="16"/>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7">
-        <v>43770</v>
-      </c>
-      <c r="B27" s="22" t="s">
+        <v>43769</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="9">
         <v>1.5</v>
       </c>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
-        <v>43773</v>
+        <v>43770</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C28" s="19">
         <v>1.5</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" customHeight="1">
+    <row r="29" spans="1:9" ht="30">
       <c r="A29" s="7">
+        <v>43773</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A30" s="7">
         <v>43774</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="7">
-        <v>43775</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14" t="s">
+      <c r="A31" s="7">
+        <v>43775</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="7">
+        <v>43776</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7">
+        <v>43777</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="15">
-        <f>SUM(C19:C30)</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-    </row>
-    <row r="33" spans="1:3" ht="27.5">
-      <c r="A33" s="32" t="s">
+      <c r="C34" s="15">
+        <f>SUM(C20:C33)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="1:3" ht="27">
+      <c r="A36" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-    </row>
-    <row r="34" spans="1:3" ht="27.5">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34"/>
+    </row>
+    <row r="37" spans="1:3" ht="27">
+      <c r="A37" s="11"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7">
-        <v>43758</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="7">
-        <v>43760</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="9">
+      <c r="C38" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7">
-        <v>43762</v>
+        <v>43754</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C39" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7">
-        <v>43763</v>
+        <v>43758</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C40" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="29">
+    <row r="41" spans="1:3">
       <c r="A41" s="7">
+        <v>43760</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7">
+        <v>43763</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30">
+      <c r="A44" s="7">
         <v>43767</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C44" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="29">
-      <c r="A42" s="20">
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" s="20">
         <v>43768</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B45" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="29">
-      <c r="A43" s="23">
+      <c r="C45" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="23">
         <v>43770</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="20">
+      <c r="C46" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="20">
         <v>43771</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B47" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C47" s="26">
         <v>0.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="23">
+    <row r="48" spans="1:3">
+      <c r="A48" s="23">
         <v>43772</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B48" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="28">
+      <c r="C48" s="28">
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="23">
+    <row r="49" spans="1:3">
+      <c r="A49" s="23">
         <v>43773</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B49" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="28">
+      <c r="C49" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="29">
+    <row r="50" spans="1:3">
+      <c r="A50" s="29">
         <v>43774</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B50" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C50" s="25">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="29">
+    <row r="51" spans="1:3">
+      <c r="A51" s="29">
         <v>43775</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B51" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="29">
+      <c r="C51" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="29">
         <v>43776</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B52" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="27"/>
-      <c r="B51" s="27" t="s">
+      <c r="C52" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="27">
-        <f>SUM(C36:C50)</f>
+      <c r="C54" s="27">
+        <f>SUM(C39:C53)</f>
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A36:C36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E9DC8B-E702-4AD4-8B73-34434A400D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E6B22-0868-4A1B-94CB-2F412DBF9B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Matteo</t>
   </si>
@@ -711,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -869,103 +869,103 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="7">
+        <v>43778</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="15">
-        <f>SUM(C4:C14)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="27">
-      <c r="A17" s="32" t="s">
+      <c r="C16" s="15">
+        <f>SUM(C4:C15)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="27">
+      <c r="A18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="7">
+      <c r="C20" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7">
         <v>43754</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>8</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="7">
-        <v>43755</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="C21" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" ht="30">
       <c r="A22" s="7">
-        <v>43757</v>
+        <v>43755</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="I22" s="16"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="7">
-        <v>43762</v>
+        <v>43757</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7">
-        <v>43764</v>
+        <v>43763</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
@@ -976,305 +976,316 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
-        <v>43768</v>
+        <v>43764</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="9">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7">
-        <v>43769</v>
+        <v>43768</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C27" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E27" s="16"/>
+        <v>3.5</v>
+      </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
+        <v>43769</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="7">
         <v>43770</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B29" s="22" t="s">
         <v>18</v>
-      </c>
-      <c r="C28" s="19">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="7">
-        <v>43773</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="C29" s="19">
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5" customHeight="1">
+    <row r="30" spans="1:9" ht="30">
       <c r="A30" s="7">
+        <v>43773</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A31" s="7">
         <v>43774</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="7">
-        <v>43775</v>
       </c>
       <c r="B31" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="7">
-        <v>43776</v>
+        <v>43775</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C32" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7">
-        <v>43777</v>
+        <v>43776</v>
       </c>
       <c r="B33" s="22" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="7">
+        <v>43777</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="15">
-        <f>SUM(C20:C33)</f>
+      <c r="C35" s="15">
+        <f>SUM(C21:C34)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-    </row>
-    <row r="36" spans="1:3" ht="27">
-      <c r="A36" s="32" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="1:3" ht="27">
+      <c r="A37" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-    </row>
-    <row r="37" spans="1:3" ht="27">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="34"/>
+    </row>
+    <row r="38" spans="1:3" ht="27">
+      <c r="A38" s="11"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C40" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C41" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C42" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7">
         <v>43763</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C44" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30">
-      <c r="A44" s="7">
+    <row r="45" spans="1:3" ht="30">
+      <c r="A45" s="7">
         <v>43767</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C45" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30">
-      <c r="A45" s="20">
+    <row r="46" spans="1:3" ht="30">
+      <c r="A46" s="20">
         <v>43768</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B46" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="23">
+      <c r="C46" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="23">
         <v>43770</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B47" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="20">
+      <c r="C47" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="20">
         <v>43771</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B48" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="26">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="23">
-        <v>43772</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="28">
+      <c r="C48" s="26">
         <v>0.5</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="23">
+        <v>43772</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="23">
         <v>43773</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B50" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C50" s="28">
         <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="29">
-        <v>43774</v>
-      </c>
-      <c r="B50" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="25">
-        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="29">
-        <v>43775</v>
+        <v>43774</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C51" s="25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="29">
+        <v>43775</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="29">
         <v>43776</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B53" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="C53" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27" t="s">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="27">
-        <f>SUM(C39:C53)</f>
+      <c r="C55" s="27">
+        <f>SUM(C40:C54)</f>
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A37:C37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4E6B22-0868-4A1B-94CB-2F412DBF9B99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Matteo</t>
   </si>
@@ -135,7 +129,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -297,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -367,9 +361,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -377,9 +368,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -703,33 +691,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10"/>
@@ -747,7 +735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="29">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
@@ -758,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="29">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
@@ -791,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
@@ -813,7 +801,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:3" ht="29">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
@@ -894,12 +882,12 @@
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="1:9" ht="27">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:9" ht="27.5">
+      <c r="A18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="11"/>
@@ -929,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="29">
       <c r="A22" s="7">
         <v>43755</v>
       </c>
@@ -1019,7 +1007,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:9">
       <c r="A30" s="7">
         <v>43773</v>
       </c>
@@ -1089,14 +1077,14 @@
       <c r="B36"/>
       <c r="C36"/>
     </row>
-    <row r="37" spans="1:3" ht="27">
-      <c r="A37" s="32" t="s">
+    <row r="37" spans="1:3" ht="27.5">
+      <c r="A37" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34"/>
-    </row>
-    <row r="38" spans="1:3" ht="27">
+      <c r="B37" s="31"/>
+      <c r="C37" s="32"/>
+    </row>
+    <row r="38" spans="1:3" ht="27.5">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -1167,7 +1155,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="30">
+    <row r="45" spans="1:3" ht="29">
       <c r="A45" s="7">
         <v>43767</v>
       </c>
@@ -1178,7 +1166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30">
+    <row r="46" spans="1:3" ht="29">
       <c r="A46" s="20">
         <v>43768</v>
       </c>
@@ -1189,7 +1177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30">
+    <row r="47" spans="1:3" ht="29">
       <c r="A47" s="23">
         <v>43770</v>
       </c>
@@ -1207,7 +1195,7 @@
       <c r="B48" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C48" s="25">
         <v>0.5</v>
       </c>
     </row>
@@ -1218,7 +1206,7 @@
       <c r="B49" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="28">
+      <c r="C49" s="27">
         <v>0.5</v>
       </c>
     </row>
@@ -1229,56 +1217,62 @@
       <c r="B50" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="28">
+      <c r="C50" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="29">
+      <c r="A51" s="23">
         <v>43774</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C51" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="29">
+      <c r="A52" s="23">
         <v>43775</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="29">
+      <c r="A53" s="23">
         <v>43776</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53" s="27">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="23">
+        <v>43778</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="27">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="27"/>
-      <c r="B55" s="27" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="27">
+      <c r="C55" s="26">
         <f>SUM(C40:C54)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA418E40-68C2-41CD-8F63-052161FDB3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Matteo</t>
   </si>
@@ -129,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -691,18 +697,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1063,192 +1069,192 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
+      <c r="A35" s="7">
+        <v>43779</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="15">
-        <f>SUM(C21:C34)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-    </row>
-    <row r="37" spans="1:3" ht="27.5">
-      <c r="A37" s="30" t="s">
+      <c r="C36" s="15">
+        <f>SUM(C21:C35)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="1:3" ht="27.5">
+      <c r="A38" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="31"/>
-      <c r="C37" s="32"/>
-    </row>
-    <row r="38" spans="1:3" ht="27.5">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5" t="s">
+      <c r="B38" s="31"/>
+      <c r="C38" s="32"/>
+    </row>
+    <row r="39" spans="1:3" ht="27.5">
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="9">
+      <c r="C40" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="7">
-        <v>43758</v>
+        <v>43754</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C41" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7">
-        <v>43760</v>
+        <v>43758</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C42" s="9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="7">
-        <v>43762</v>
+        <v>43760</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C43" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7">
         <v>43763</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C45" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="29">
-      <c r="A45" s="7">
+    <row r="46" spans="1:3" ht="29">
+      <c r="A46" s="7">
         <v>43767</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C46" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="29">
-      <c r="A46" s="20">
+    <row r="47" spans="1:3" ht="29">
+      <c r="A47" s="20">
         <v>43768</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="29">
-      <c r="A47" s="23">
+      <c r="C47" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="29">
+      <c r="A48" s="23">
         <v>43770</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B48" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="20">
+      <c r="C48" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="20">
         <v>43771</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B49" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C48" s="25">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="23">
-        <v>43772</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="27">
+      <c r="C49" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="23">
-        <v>43773</v>
+        <v>43772</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C50" s="27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="23">
-        <v>43774</v>
+        <v>43773</v>
       </c>
       <c r="B51" s="22" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C51" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="23">
-        <v>43775</v>
+        <v>43774</v>
       </c>
       <c r="B52" s="22" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C52" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="23">
-        <v>43776</v>
+        <v>43775</v>
       </c>
       <c r="B53" s="22" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C53" s="27">
         <v>3</v>
@@ -1256,7 +1262,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="23">
-        <v>43778</v>
+        <v>43776</v>
       </c>
       <c r="B54" s="22" t="s">
         <v>18</v>
@@ -1266,12 +1272,23 @@
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26" t="s">
+      <c r="A55" s="23">
+        <v>43778</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="26">
-        <f>SUM(C40:C54)</f>
+      <c r="C56" s="26">
+        <f>SUM(C41:C55)</f>
         <v>35</v>
       </c>
     </row>
@@ -1279,7 +1296,7 @@
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RASD/efforts.xlsx
+++ b/RASD/efforts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrea\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\PozziSaccoVentura-SwEng2\RASD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA418E40-68C2-41CD-8F63-052161FDB3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1252669-19B9-417F-A0A5-77BEFE9B35A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>Matteo</t>
   </si>
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -321,9 +321,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -337,9 +334,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -356,25 +350,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -705,30 +693,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
@@ -741,25 +729,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="7">
         <v>43756</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="29">
+      <c r="C4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="7">
         <v>43757</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
     </row>
@@ -767,10 +755,10 @@
       <c r="A6" s="7">
         <v>43761</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>4</v>
       </c>
     </row>
@@ -778,21 +766,21 @@
       <c r="A7" s="7">
         <v>43763</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="7">
         <v>43765</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
     </row>
@@ -800,21 +788,21 @@
       <c r="A9" s="7">
         <v>43767</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="7">
         <v>43770</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>4</v>
       </c>
     </row>
@@ -822,10 +810,10 @@
       <c r="A11" s="7">
         <v>43772</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="17">
         <v>2.5</v>
       </c>
     </row>
@@ -833,10 +821,10 @@
       <c r="A12" s="7">
         <v>43773</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="17">
         <v>1.5</v>
       </c>
     </row>
@@ -844,10 +832,10 @@
       <c r="A13" s="7">
         <v>43775</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="17">
         <v>3</v>
       </c>
     </row>
@@ -855,10 +843,10 @@
       <c r="A14" s="7">
         <v>43777</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="17">
         <v>1</v>
       </c>
     </row>
@@ -866,437 +854,448 @@
       <c r="A15" s="7">
         <v>43778</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="7">
+        <v>43779</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="12"/>
+      <c r="B17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="15">
-        <f>SUM(C4:C15)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" ht="27.5">
-      <c r="A18" s="30" t="s">
+      <c r="C17" s="13">
+        <f>SUM(C4:C16)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="27">
+      <c r="A19" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="7">
+      <c r="C21" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="7">
         <v>43754</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C22" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="29">
-      <c r="A22" s="7">
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="7">
         <v>43755</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C23" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="7">
-        <v>43757</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="7">
-        <v>43762</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="9">
-        <v>3</v>
-      </c>
+        <v>43757</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="7">
-        <v>43763</v>
-      </c>
-      <c r="B25" s="8" t="s">
+        <v>43762</v>
+      </c>
+      <c r="B25" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="9">
-        <v>2</v>
+      <c r="C25" s="8">
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="7">
-        <v>43764</v>
-      </c>
-      <c r="B26" s="8" t="s">
+        <v>43763</v>
+      </c>
+      <c r="B26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="7">
-        <v>43768</v>
-      </c>
-      <c r="B27" s="8" t="s">
+        <v>43764</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="9">
-        <v>3.5</v>
+      <c r="C27" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="7">
-        <v>43769</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="E28" s="16"/>
+        <v>43768</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="8">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7">
-        <v>43770</v>
-      </c>
-      <c r="B29" s="22" t="s">
+        <v>43769</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="8">
         <v>1.5</v>
       </c>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="7">
+        <v>43770</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30">
+      <c r="A31" s="7">
         <v>43773</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C31" s="17">
         <v>1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A31" s="7">
+    <row r="32" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A32" s="7">
         <v>43774</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C32" s="17">
         <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="7">
-        <v>43775</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="19">
-        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7">
-        <v>43776</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="19">
-        <v>2</v>
+        <v>43775</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7">
-        <v>43777</v>
-      </c>
-      <c r="B34" s="22" t="s">
+        <v>43776</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="19">
-        <v>3</v>
+      <c r="C34" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7">
+        <v>43777</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7">
         <v>43779</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B36" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14" t="s">
+      <c r="C36" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="12"/>
+      <c r="B37" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="15">
-        <f>SUM(C21:C35)</f>
+      <c r="C37" s="13">
+        <f>SUM(C22:C36)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="1:3" ht="27.5">
-      <c r="A38" s="30" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="C38"/>
+    </row>
+    <row r="39" spans="1:3" ht="27">
+      <c r="A39" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="32"/>
-    </row>
-    <row r="39" spans="1:3" ht="27.5">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5" t="s">
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40" spans="1:3" ht="27">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="7">
-        <v>43754</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="9">
+      <c r="C41" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="7">
-        <v>43758</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="9">
-        <v>2</v>
+        <v>43754</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="7">
-        <v>43760</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="9">
-        <v>3</v>
+        <v>43758</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="17">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="7">
-        <v>43762</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="9">
-        <v>1</v>
+        <v>43760</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="17">
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="7">
+        <v>43762</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7">
         <v>43763</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B46" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C46" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="29">
-      <c r="A46" s="7">
+    <row r="47" spans="1:3" ht="30">
+      <c r="A47" s="7">
         <v>43767</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C47" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="29">
-      <c r="A47" s="20">
+    <row r="48" spans="1:3" ht="30">
+      <c r="A48" s="18">
         <v>43768</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B48" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="29">
-      <c r="A48" s="23">
+      <c r="C48" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="30">
+      <c r="A49" s="7">
         <v>43770</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B49" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="20">
+      <c r="C49" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="18">
         <v>43771</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="25">
+      <c r="C50" s="19">
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="23">
+    <row r="51" spans="1:3">
+      <c r="A51" s="7">
         <v>43772</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B51" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C51" s="17">
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="23">
+    <row r="52" spans="1:3">
+      <c r="A52" s="7">
         <v>43773</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B52" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="27">
+      <c r="C52" s="17">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="23">
+    <row r="53" spans="1:3">
+      <c r="A53" s="7">
         <v>43774</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B53" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="27">
+      <c r="C53" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="23">
+    <row r="54" spans="1:3">
+      <c r="A54" s="7">
         <v>43775</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B54" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="23">
+      <c r="C54" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="7">
         <v>43776</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C54" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="23">
+      <c r="C55" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="7">
         <v>43778</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B56" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C55" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26" t="s">
+      <c r="C56" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="26">
-        <f>SUM(C41:C55)</f>
+      <c r="C57" s="13">
+        <f>SUM(C42:C56)</f>
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
